--- a/Factuurbon/Factuur_Bart van Wijk_79001.xlsx
+++ b/Factuurbon/Factuur_Bart van Wijk_79001.xlsx
@@ -9,7 +9,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Het Fruithuisje</t>
   </si>
@@ -53,49 +53,10 @@
     <t>€ 1.34</t>
   </si>
   <si>
-    <t>Appel (Granny Smith)</t>
-  </si>
-  <si>
-    <t>€ 1.75</t>
-  </si>
-  <si>
-    <t>Komkommer</t>
-  </si>
-  <si>
-    <t>€ 0.69</t>
-  </si>
-  <si>
-    <t>Vijg</t>
-  </si>
-  <si>
-    <t>€ 18.69</t>
-  </si>
-  <si>
-    <t>Kool (Rood)</t>
-  </si>
-  <si>
-    <t>€ 0.89</t>
-  </si>
-  <si>
-    <t>Ui (Rood)</t>
-  </si>
-  <si>
-    <t>€ 1.25</t>
-  </si>
-  <si>
-    <t>Champignons</t>
-  </si>
-  <si>
-    <t>€ 6.99</t>
-  </si>
-  <si>
-    <t>Koriander</t>
-  </si>
-  <si>
-    <t>€ 4.99</t>
-  </si>
-  <si>
-    <t>€ 737.13</t>
+    <t>Korting: 50%</t>
+  </si>
+  <si>
+    <t>€ 0.67</t>
   </si>
 </sst>
 </file>
@@ -151,13 +112,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G8"/>
   <cols>
     <col min="1" max="1" width="16"/>
-    <col min="2" max="2" width="21"/>
+    <col min="2" max="2" width="20"/>
     <col min="3" max="3" width="8"/>
-    <col min="4" max="4" width="5"/>
-    <col min="5" max="5" width="9"/>
+    <col min="4" max="4" width="13"/>
+    <col min="5" max="5" width="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -218,7 +179,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s" s="4">
         <v>12</v>
@@ -228,139 +189,20 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="4">
-        <v>31016</v>
+      <c r="A8" t="s" s="4">
+        <v>12</v>
       </c>
       <c r="B8" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s" s="4">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="4">
         <v>14</v>
-      </c>
-      <c r="C8" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D8" s="4">
-        <v>34</v>
       </c>
       <c r="E8" t="s" s="4">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4">
-        <v>31028</v>
-      </c>
-      <c r="B9" t="s" s="4">
-        <v>16</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45</v>
-      </c>
-      <c r="D9" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="E9" t="s" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4">
-        <v>31042</v>
-      </c>
-      <c r="B10" t="s" s="4">
-        <v>18</v>
-      </c>
-      <c r="C10" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D10" s="4">
-        <v>23</v>
-      </c>
-      <c r="E10" t="s" s="4">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4">
-        <v>41060</v>
-      </c>
-      <c r="B11" t="s" s="4">
-        <v>20</v>
-      </c>
-      <c r="C11" s="4">
-        <v>45</v>
-      </c>
-      <c r="D11" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="E11" t="s" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4">
-        <v>41080</v>
-      </c>
-      <c r="B12" t="s" s="4">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D12" s="4">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s" s="4">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4">
-        <v>51090</v>
-      </c>
-      <c r="B13" t="s" s="4">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D13" s="4">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4">
-        <v>71116</v>
-      </c>
-      <c r="B14" t="s" s="4">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D14" s="4">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="4">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s" s="4">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
